--- a/UMAI Test Scenarios.xlsx
+++ b/UMAI Test Scenarios.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="TS001" sheetId="2" r:id="rId2"/>
     <sheet name="TS002" sheetId="7" r:id="rId3"/>
+    <sheet name="TS003" sheetId="8" r:id="rId4"/>
+    <sheet name="TS004" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="124">
   <si>
     <t>Mozilla Firefox 55.0.3</t>
   </si>
@@ -86,9 +89,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>For Customers</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
@@ -125,182 +125,420 @@
     <t>Lanz Compala</t>
   </si>
   <si>
-    <t>Test Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate customer reservation using web </t>
-  </si>
-  <si>
     <t xml:space="preserve">PC </t>
   </si>
   <si>
-    <t>Customer is in UMAI homepage:
-http://letsumai.com</t>
-  </si>
-  <si>
     <t>UMAI (Sample Regression Test)</t>
   </si>
   <si>
-    <t>To verify customer reservation for an available date and time
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>For guests</t>
+  </si>
+  <si>
+    <t>To verify guest reservation for an available date and time
 (No existing account)</t>
   </si>
   <si>
-    <t>THEN the selected date and time slot will be on hold for the  for 5 min
-AND customer account is created
-AND reservation for the selected time slot is saved
-AND customer will receive a text message for confirmation</t>
-  </si>
-  <si>
-    <t>To verify customer reservation for an available date and time
-(With existing account)</t>
-  </si>
-  <si>
-    <t>GIVEN customer without an account selected the desired location
+    <t>GIVEN guest without an account selected the desired location
 AND selected a restaurant
 AND chooses Party Size, Date and Time
 AND selected an available time slot
-WHEN the customer created a new account</t>
-  </si>
-  <si>
-    <t>GIVEN customer with an account selected the desired location
+WHEN the guest created a new account</t>
+  </si>
+  <si>
+    <t>To verify guest reservation for an available date and time
+(With existing account)</t>
+  </si>
+  <si>
+    <t>GIVEN guest with an account selected the desired location
 AND selected a restaurant
 AND chooses Party Size, Date and Time
 AND selected an available time slot
-WHEN customer click Login
+WHEN guest click Login
 AND logged in existing account</t>
   </si>
   <si>
-    <t>THEN the selected date and time slot will be on hold for the  for 5 min
-AND reservation for the selected time slot is saved
-AND customer will receive a text message for confirmation</t>
-  </si>
-  <si>
-    <t>Customer is in UMAI homepage:
-http://letsumai.com
-Customer has an existing account</t>
-  </si>
-  <si>
-    <t>To verify customer reservation to a restaurant which requires deposit for cancellation</t>
-  </si>
-  <si>
-    <t>GIVEN customer  selected the desired location
-WHEN customer selected a restaurant that requires deposit
+    <t>To verify guest reservation to a restaurant which requires deposit for cancellation</t>
+  </si>
+  <si>
+    <t>GIVEN guest  selected the desired location
+WHEN guest selected a restaurant that requires deposit
 AND selected an available time slot</t>
   </si>
   <si>
-    <t>THEN before the customer can reserve the time slot, credit card no. is required for a deposit in case of cancellation or reschedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate customer reservation cancellation/reschedule using web </t>
-  </si>
-  <si>
-    <t>GIVEN customer has access to the confirmation email
+    <t>THEN before the guest can reserve the time slot, credit card no. is required for a deposit in case of cancellation or reschedule</t>
+  </si>
+  <si>
+    <t>To verify guest cancellation of reservation
+(30 min. or more before reservation slot)</t>
+  </si>
+  <si>
+    <t>guest has an existing reservation
+Restaurant does NOT have cancellation fee</t>
+  </si>
+  <si>
+    <t>GIVEN guest has access to the confirmation email
 WHEN Change or Cancel is clicked
 AND is redirected to Reservation page
 AND Cancel button is clicked</t>
   </si>
   <si>
-    <t>Customer has an existing reservation
-Restaurant does NOT have cancellation fee</t>
-  </si>
-  <si>
-    <t>THEN cancellation of reservation is confirmed
-AND no fees are charged
-AND an email will be sent to customer regarding cancellation</t>
-  </si>
-  <si>
-    <t>To verify customer cancellation of reservation
+    <t>To verify guest cancellation of reservation
+(Less than 30 min. before reservation slot)</t>
+  </si>
+  <si>
+    <t>To verify guest cancellation of reservation with fee
 (30 min. or more before reservation slot)</t>
   </si>
   <si>
-    <t>To verify customer cancellation of reservation
+    <t>guest has an existing reservation
+Restaurant have cancellation fee</t>
+  </si>
+  <si>
+    <t>To verify guest cancellation of reservation with fee
 (Less than 30 min. before reservation slot)</t>
   </si>
   <si>
-    <t>THEN customer account will be tagged as NO SHOW
-AND cancellation is confirmed
-AND an email will be sent to customer regarding cancellation</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Customer has an existing reservation
-Restaurant have cancellation fee</t>
-  </si>
-  <si>
-    <t>THEN cancellation of reservation is confirmed
-AND cancellation fee is charged to the customer's credit card
-AND an email will be sent to customer regarding cancellation</t>
-  </si>
-  <si>
-    <t>THEN customer account will be tagged as NO SHOW
-AND cancellation is confirmed
-AND cancellation fee is charged to the customer's credit card
-AND an email will be sent to customer regarding cancellation</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>To verify customer cancellation of reservation
+    <t>To verify guest cancellation of reservation
 (Restaurant does not allow cancellation)</t>
   </si>
   <si>
-    <t>Customer has an existing reservation
+    <t>guest has an existing reservation
 Restaurant does NOT allow cancellation</t>
   </si>
   <si>
-    <t xml:space="preserve">GIVEN customer has access to the confirmation email
+    <t xml:space="preserve">GIVEN guest has access to the confirmation email
 WHEN Change or Cancel is clicked
 </t>
   </si>
   <si>
-    <t>THEN customer should NOT be allowed to cancel
-AND will be directed to page, where instruction for cancellation is to call the restaurant</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
-    <t>Customer has an existing reservation
+    <t>To verify guest change of reservation date</t>
+  </si>
+  <si>
+    <t>guest has an existing reservation
 Restaurant does NOT have rescheduling fee</t>
   </si>
   <si>
-    <t>To verify customer change of reservation date</t>
-  </si>
-  <si>
-    <t>GIVEN customer has access to the confirmation email
+    <t>GIVEN guest has access to the confirmation email
 WHEN Change or Cancel is clicked
 AND is redirected to Reservation page
 AND Change button is clicked</t>
   </si>
   <si>
-    <t>THEN customer should change the reservation time and date
-AND an email will be sent to customer regarding change of reservation date</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>To verify customer cancellation of reservation with fee
-(Less than 30 min. before reservation slot)</t>
-  </si>
-  <si>
-    <t>To verify customer cancellation of reservation with fee
-(30 min. or more before reservation slot)</t>
-  </si>
-  <si>
-    <t>To verify customer change of reservation date with fee</t>
-  </si>
-  <si>
-    <t>Customer has an existing reservation
+    <t>To verify guest change of reservation date with fee</t>
+  </si>
+  <si>
+    <t>guest has an existing reservation
 Restaurant have rescheduling fee</t>
   </si>
   <si>
-    <t>THEN customer should change the reservation time and date
-AND rescheduling  fee is charged to the customer's credit card
-AND an email will be sent to customer regarding change of reservation date</t>
+    <t>Guest is in UMAI homepage:
+http://letsumai.com</t>
+  </si>
+  <si>
+    <t>Guest is in UMAI homepage:
+http://letsumai.com
+guest has an existing account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN that user is in Manage Tables screen
+AND select Create by Range in options
+AND select Letter
+WHEN user enter Range: F - L
+AND set Prefix as: 1
+AND field values are entered
+AND  Save is clicked </t>
+  </si>
+  <si>
+    <t>GIVEN that user is in Manage tables screen
+AND select Create Individually in options
+AND Create button is clicked
+WHEN input for fields are entered:
+Table Name
+Location
+Default Status
+Wait Staff
+Available Days
+Avaialbe Hours
+AND  Save is clicked</t>
+  </si>
+  <si>
+    <t>Has existing Category:
+i.e:
+Category: Balcony1
+Location : Balcony Area
+Default: Available
+Wait Staff: Alex
+Available Days: All
+Available Hours: 6:00 PM - 10:30 PM</t>
+  </si>
+  <si>
+    <t>GIVEN that user is in Manage tables screen
+AND select Create Individually in options
+AND Create button is clicked
+WHEN user select Category as: Balcony1</t>
+  </si>
+  <si>
+    <t>THEN cancellation of reservation is confirmed
+AND no fees are charged
+AND an email will be sent to guest regarding cancellation</t>
+  </si>
+  <si>
+    <t>THEN guest account will be tagged as NO SHOW
+AND cancellation is confirmed
+AND an email will be sent to guest regarding cancellation</t>
+  </si>
+  <si>
+    <t>THEN cancellation of reservation is confirmed
+AND cancellation fee is charged to the guest's credit card
+AND an email will be sent to guest regarding cancellation</t>
+  </si>
+  <si>
+    <t>THEN guest account will be tagged as NO SHOW
+AND cancellation is confirmed
+AND cancellation fee is charged to the guest's credit card
+AND an email will be sent to guest regarding cancellation</t>
+  </si>
+  <si>
+    <t>THEN guest should NOT be allowed to cancel
+AND will be directed to page, where instruction for cancellation is to call the restaurant</t>
+  </si>
+  <si>
+    <t>THEN guest should change the reservation time and date
+AND an email will be sent to guest regarding change of reservation date</t>
+  </si>
+  <si>
+    <t>THEN guest should change the reservation time and date
+AND rescheduling  fee is charged to the guest's credit card
+AND an email will be sent to guest regarding change of reservation date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN that user is in Manage Tables screen
+AND select Create by Range in options
+AND select Number
+WHEN user enter Range: 1 - 10
+AND set Prefix as: A
+AND category is selected
+AND  Save is clicked </t>
+  </si>
+  <si>
+    <t>Verify Edit table
+- Edit Category</t>
+  </si>
+  <si>
+    <t>Verify Edit table
+- Edit Individually</t>
+  </si>
+  <si>
+    <t>THEN all field values are updated based on category
+AND changes are reflected in Table Layout screen</t>
+  </si>
+  <si>
+    <t>THEN all field values with changes are updated
+AND changes are reflected in Table Layout screen</t>
+  </si>
+  <si>
+    <t>THEN new tables from 1F to 1L are created
+AND all table details are the same
+AND tables are displayed in Table Layout screen</t>
+  </si>
+  <si>
+    <t>THEN new table is created
+AND table is displayed in Table Layout screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN all fields for table details are populated
+AND field values match the values set to category: Balcony1
+</t>
+  </si>
+  <si>
+    <t>THEN new tables from A1 to A10 are created
+AND all table details are the same
+AND tables are displayed in Table Layout screen</t>
+  </si>
+  <si>
+    <t>THEN the selected date and time slot will be on hold for the  for 5 min
+AND guest account is created
+AND reservation for the 
+selected time slot is saved
+AND guest will receive a text message for confirmation</t>
+  </si>
+  <si>
+    <t>THEN the selected date and time slot will be on hold for the  for 5 min
+AND reservation for the selected time slot is saved
+AND guest will receive a text message for confirmation</t>
+  </si>
+  <si>
+    <t>Verify Create table
+- Create Individually</t>
+  </si>
+  <si>
+    <t>Verify Create table 
+- Create Individually
+- Using Category</t>
+  </si>
+  <si>
+    <t>Verify Create table 
+- Create by Range Number</t>
+  </si>
+  <si>
+    <t>Verify Create table 
+- Create by Range Letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN that user is in Manage Tables screen
+AND selected table to edit
+AND table status is: AVAILABLE
+WHEN user edit values in table details fields
+AND  Save is clicked </t>
+  </si>
+  <si>
+    <t>Enable edit table currently booked: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN that user is in Manage Tables screen
+AND selected table to edit
+AND table status is: BOOKED
+WHEN user changes category
+AND  Save is clicked
+</t>
+  </si>
+  <si>
+    <t>Verify Delete table
+- Delete Individually</t>
+  </si>
+  <si>
+    <t>GIVEN that user is in Manage Tables screen
+AND selected table to delete
+AND table status is: AVAILABLE
+WHEN user click Delete button</t>
+  </si>
+  <si>
+    <t>THEN selected table is deleted
+AND table is NOT displayed in Table Layout screen</t>
+  </si>
+  <si>
+    <t>Verify Delete table
+- Delete Multiple</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUEST - Validate guest reservation using web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUEST - Validate guest reservation cancellation/reschedule using web </t>
+  </si>
+  <si>
+    <t>GIVEN that user is in Manage Tables screen
+AND selected mulitple tables to delete
+AND table statuses are: AVAILABLE
+WHEN user click Delete button</t>
+  </si>
+  <si>
+    <t>THEN all selected tables are deleted
+AND deleted tables are NOT displayed in Table Layout screen</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TABLE MGMT - Validate Table Management - CRUD Table</t>
+  </si>
+  <si>
+    <t>Verify Delete table
+- Booked and In Service Tables</t>
+  </si>
+  <si>
+    <t>GIVEN that user is in Manage Tables screen
+AND selected table to delete
+AND table status is:
+BOOKED, CONFIRMED, IN SERVICE
+WHEN user click Delete button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEN error message displayed
+AND unable to delete tables with current status of:
+BOOKED, CONFIRMED, IN SERVICE
+</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>Chrome Version 62.0.3202.94</t>
+  </si>
+  <si>
+    <t>Iphone 7 iOS 10.0.3</t>
+  </si>
+  <si>
+    <t>THEN app push notification is displayed in guest device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFY LIST MGMT - Validate Guest Auto Notify </t>
+  </si>
+  <si>
+    <t>Verify auto notify
+- Push Notification</t>
+  </si>
+  <si>
+    <t>GIVEN that guest reservation has an existing confirmed reservation
+WHEN the time is 15 min before reservation time</t>
+  </si>
+  <si>
+    <t>GIVEN that guest reservation has an existing confirmed reservation
+WHEN the time is 30 min before reservation time</t>
+  </si>
+  <si>
+    <t>Verify auto notify
+- SMS Notification</t>
+  </si>
+  <si>
+    <t>Restaurant configuration
+Auto notify: ON
+Notification Type: Push
+Time: 30 min</t>
+  </si>
+  <si>
+    <t>Restaurant configuration
+Auto notify: ON
+Notification Type: SMS
+Time: 15 min</t>
+  </si>
+  <si>
+    <t>THEN SMS notification is displayed</t>
+  </si>
+  <si>
+    <t>Verify auto notify
+- Email Notification</t>
+  </si>
+  <si>
+    <t>GIVEN that guest reservation has an existing confirmed reservation
+WHEN the time is 1 hr before reservation time</t>
+  </si>
+  <si>
+    <t>THEN Email notification is displayed</t>
+  </si>
+  <si>
+    <t>Restaurant configuration
+Auto notify: ON
+Notification Type: Email
+Time: 1 hr</t>
   </si>
 </sst>
 </file>
@@ -409,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +682,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -460,7 +704,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -859,15 +1175,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -875,15 +1189,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,12 +1205,12 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,14 +1230,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="str">
         <f>'TS001'!B2</f>
         <v>TS001</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>'TS001'!B3</f>
-        <v xml:space="preserve">Validate customer reservation using web </v>
+        <v xml:space="preserve">GUEST - Validate guest reservation using web </v>
       </c>
       <c r="E8" s="2">
         <f>'TS001'!E2</f>
@@ -938,14 +1252,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="str">
         <f>'TS002'!B2</f>
         <v>TS002</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>'TS002'!B3</f>
-        <v xml:space="preserve">Validate customer reservation cancellation/reschedule using web </v>
+        <v xml:space="preserve">GUEST - Validate guest reservation cancellation/reschedule using web </v>
       </c>
       <c r="E9" s="2">
         <f>'TS002'!E2</f>
@@ -960,22 +1274,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="str">
+        <f>'TS003'!B2</f>
+        <v>TS003</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f>'TS003'!B3</f>
+        <v>TABLE MGMT - Validate Table Management - CRUD Table</v>
+      </c>
+      <c r="E10" s="2">
+        <f>'TS003'!E2</f>
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <f>'TS003'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f>'TS003'!H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="str">
+        <f>'TS004'!B2</f>
+        <v>TS004</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>'TS004'!B3</f>
+        <v xml:space="preserve">NOTIFY LIST MGMT - Validate Guest Auto Notify </v>
+      </c>
+      <c r="E11" s="2">
+        <f>'TS004'!E2</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <f>'TS004'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>'TS004'!H3</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,10 +1347,10 @@
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1028,30 +1369,29 @@
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5">
-        <f>COUNTIF(H11:H13,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="13">
         <v>43058</v>
@@ -1059,38 +1399,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>0</v>
@@ -1127,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
@@ -1147,16 +1485,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
@@ -1167,14 +1505,14 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
@@ -1190,10 +1528,10 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H13">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1205,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1224,10 +1562,10 @@
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1576,6 @@
         <v>18</v>
       </c>
       <c r="H2" s="5">
-        <f>COUNTIF(H11:H15,"PASSED")</f>
         <v>0</v>
       </c>
     </row>
@@ -1246,12 +1583,12 @@
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1262,14 +1599,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="13">
         <v>43058</v>
@@ -1277,38 +1614,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>0</v>
@@ -1345,16 +1680,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
@@ -1365,16 +1700,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
@@ -1385,56 +1720,56 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
@@ -1442,36 +1777,36 @@
     </row>
     <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>75</v>
@@ -1490,18 +1825,576 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <f>COUNTIF(H11:H15,"PASSED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <f>COUNTIF(H11:H15,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H11:H15">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <f>COUNTIF(H11:H15,"PASSED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <f>COUNTIF(H11:H15,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H11:H13">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"FAILED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
